--- a/biology/Médecine/Nerf_naso-ciliaire/Nerf_naso-ciliaire.xlsx
+++ b/biology/Médecine/Nerf_naso-ciliaire/Nerf_naso-ciliaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf naso-ciliaire (ou nerf nasal) est la branche terminale médiale du nerf ophtalmique, lui-même branche du nerf trijumeau (CN V). Il est de taille intermédiaire par rapport aux deux autres branches du nerf ophtalmique, le nerf frontal et le nerf lacrymal.
 </t>
@@ -511,11 +523,48 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nerf naso-ciliaire  prend naissance à l'extrémité antérieure du sinus caverneux et pénètre dans l'orbite par la fissure orbitaire, entre les deux têtes du muscle droit latéral de l’œil et entre les branches supérieure et inférieure du nerf oculomoteur. Il croise le nerf optique (CN II) et passe obliquement sous le muscle droit supérieur de l’œil et le muscle oblique supérieur de l’œil jusqu'à la paroi médiale de la cavité orbitaire. Il traverse le foramen ethmoïdal antérieur en tant que nerf ethmoïdal antérieur et pénètre dans la cavité crânienne juste en dessous de la lame criblée de l'ethmoïde. Il fournit des branches à la membrane muqueuse de la cavité nasale et émerge finalement entre le bord inférieur de l'os nasal et les cartilages nasaux latéraux en tant que branche nasale externe.
-Branches
-nerf ethmoïdal postérieur
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf naso-ciliaire  prend naissance à l'extrémité antérieure du sinus caverneux et pénètre dans l'orbite par la fissure orbitaire, entre les deux têtes du muscle droit latéral de l’œil et entre les branches supérieure et inférieure du nerf oculomoteur. Il croise le nerf optique (CN II) et passe obliquement sous le muscle droit supérieur de l’œil et le muscle oblique supérieur de l’œil jusqu'à la paroi médiale de la cavité orbitaire. Il traverse le foramen ethmoïdal antérieur en tant que nerf ethmoïdal antérieur et pénètre dans la cavité crânienne juste en dessous de la lame criblée de l'ethmoïde. Il fournit des branches à la membrane muqueuse de la cavité nasale et émerge finalement entre le bord inférieur de l'os nasal et les cartilages nasaux latéraux en tant que branche nasale externe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nerf_naso-ciliaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_naso-ciliaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Branches</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nerf ethmoïdal postérieur
 nerf ethmoïdal antérieur
 nerfs ciliaires longs
 nerf infra-trochléaire
@@ -523,37 +572,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Nerf_naso-ciliaire</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nerf_naso-ciliaire</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Rôle</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les branches du nerf naso-ciliaire assurent l'innervation sensorielle des structures entourant l'œil telles que la cornée, les paupières, la conjonctive, les alvéoles ethmoïdales et la muqueuse de la cavité nasale.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -575,10 +593,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Rôle</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les branches du nerf naso-ciliaire assurent l'innervation sensorielle des structures entourant l'œil telles que la cornée, les paupières, la conjonctive, les alvéoles ethmoïdales et la muqueuse de la cavité nasale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nerf_naso-ciliaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_naso-ciliaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nerfs ciliaires courts et longs portant la branche afférente du réflexe cornéen, la réponse à ce réflexe permet de tester l'intégrité du nerf naso-ciliaire et du nerf trijumeau.
 Normalement, les deux yeux doivent se fermer lorsque l'une des cornées est excitée.
